--- a/biology/Microbiologie/Operculariidae/Operculariidae.xlsx
+++ b/biology/Microbiologie/Operculariidae/Operculariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Operculariidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Opercularia, dérivé du latin operculum, « couvercle, opercule », en référence à « l'apparence d'un couvercle ou d'un opercule qui se soulève obliquement au-dessus du bord supérieur (de ce cilié) »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Opercularia, dérivé du latin operculum, « couvercle, opercule », en référence à « l'apparence d'un couvercle ou d'un opercule qui se soulève obliquement au-dessus du bord supérieur (de ce cilié) ».
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Operculariidae ont une taille petite (&lt; 80 μm) à moyenne (80 à 200 μm). Leur forme est généralement ovoïde à cylindrique allongée. Le zoïde est contractile, mais la lèvre péristomiale ne se replie pas vers l'extérieur lors de l'éversion . Généralement leur tige n’est pas contractile. Ils vivent solitaire ou en colonies.
 Leurs structures buccales sont fortement modifiées, avec un court paroral et trois petits polykinétides oraux parfois présents, et une structure supplémentaire de fonction inconnue, la rosette, accompagnée de trois courtes kinéties ; ils n’ont pas de lèvre péristomiale distincte mais un disque épistomial proéminent, extensible et contractile qui repose sur une tige avec un sillon séparant et élevant ce disque du bord du péristome (ce disque épistomial peut être réduit chez certaines espèces endocommensales).
-Leur cavité buccale consiste en un infundibulum (structure creuse en forme d'entonnoir), souvent dilaté dorsalement, dans lequel s'ouvrent une vacuole contractile et un cytoprocte. Le macronoyau est en forme de bande ou ellipsoïde. Un micronoyau est présent[2].
+Leur cavité buccale consiste en un infundibulum (structure creuse en forme d'entonnoir), souvent dilaté dorsalement, dans lequel s'ouvrent une vacuole contractile et un cytoprocte. Le macronoyau est en forme de bande ou ellipsoïde. Un micronoyau est présent.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Operculariidae vivent en eau douce, très souvent comme épibionte sur les insectes et autres arthropodes, mais les espèces du genre Operculariella sont endocommensales dans l'œsophage d'un coléoptère[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Operculariidae vivent en eau douce, très souvent comme épibionte sur les insectes et autres arthropodes, mais les espèces du genre Operculariella sont endocommensales dans l'œsophage d'un coléoptère.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 janvier 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 janvier 2024) :
 Ampullaster Jankowski, 1976
 Bezedniella Stloukal &amp; Matis, 1994
 Opercularia Goldfuss, 1820 genre type
@@ -628,7 +648,7 @@
 Syncyathella Jankowski, 1976 nomen nudum
 Torodysteria Claparede &amp; Lachmann, 1859
 † Triadopercularia Weitschat &amp; Guhl, 1994
-Selon Lynn (2010)[2] :
+Selon Lynn (2010) :
 Ballodora Dogiel &amp; Furssenko, 1921
 Bezedniella Stloukal &amp; Matis, 1994
 Cyathopercularia Jankowski, 1980
@@ -671,9 +691,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Operculariidae Fauré-Fremiet in Corliss, 1979[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Operculariidae Fauré-Fremiet in Corliss, 1979.
 </t>
         </is>
       </c>
